--- a/Doc/Assetbundle/AssetBundle热更目录.xlsx
+++ b/Doc/Assetbundle/AssetBundle热更目录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>首次生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>asset-bundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包前生成的版本文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -232,31 +240,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -275,10 +311,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -657,23 +702,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -684,7 +729,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="3"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -693,7 +738,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,221 +747,239 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="3"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="13"/>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="14"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5">
-      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5">
-      <c r="A17" s="12" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5">
-      <c r="A25" s="12" t="s">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5">
-      <c r="A26" s="13" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="16.5">
       <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="16.5">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="16.5">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="16.5">
       <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="2:3" ht="16.5">
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
